--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarkli\Documents\programme\python\schedule_maid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5366B0-D5C6-4D69-A102-E78C3621CF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBEC708-FD3A-4B66-BD96-D728D4CAECE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.55-11.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.30-15.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15.25-17.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +136,6 @@
   </si>
   <si>
     <t>23.40-00.44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00.44-06.45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -536,6 +524,18 @@
   <si>
     <t>[section]
 自主学习1:30h+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.55-11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00.44-06:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-15.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,17 +761,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1093,23 +1093,23 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="43.25" customHeight="1">
       <c r="A3" t="s">
@@ -1142,241 +1142,241 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.25" customHeight="1" thickBot="1">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.25" customHeight="1" thickTop="1">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.25" customHeight="1" thickBot="1">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="53.25" customHeight="1" thickTop="1">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>62</v>
+        <v>42</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.25" customHeight="1">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.25" customHeight="1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.25" customHeight="1">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.25" customHeight="1">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34.9" customHeight="1">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarkli\Documents\programme\python\schedule_maid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBEC708-FD3A-4B66-BD96-D728D4CAECE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64824D9E-73BF-4D6F-8A5C-3D6C94B480FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,6 +536,13 @@
   </si>
   <si>
     <t>13:30-15.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[section]
+9:55-10:55 python进阶课程
+10:55-11:30 深度学习
+自主学习2:30h+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1055,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1137,7 +1144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.25" customHeight="1">
+    <row r="4" spans="1:8" ht="57.75" customHeight="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1164,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>58</v>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarkli\Documents\programme\python\schedule_maid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64824D9E-73BF-4D6F-8A5C-3D6C94B480FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BB8EC8-2643-4614-B5C5-6E15FCB3BEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,34 +355,6 @@
   </si>
   <si>
     <r>
-      <t>[multi]
-[心理课 214]
-18:00-19:00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> python进阶课程
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">19:00-19:30 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">[multi]
 [程序设计概论]
 15.25-16.00 </t>
@@ -543,6 +515,44 @@
 9:55-10:55 python进阶课程
 10:55-11:30 深度学习
 自主学习2:30h+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[multi]
+[心理课 214]
+18:00-19:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> python进阶课程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">19:00-19:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自主复习数学/英语</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1114,7 +1124,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="23"/>
     </row>
@@ -1161,24 +1171,24 @@
         <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.25" customHeight="1" thickBot="1">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
@@ -1192,7 +1202,7 @@
     </row>
     <row r="6" spans="1:8" ht="43.25" customHeight="1" thickTop="1">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
@@ -1207,13 +1217,13 @@
         <v>41</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.25" customHeight="1" thickBot="1">
@@ -1221,19 +1231,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="53.25" customHeight="1" thickTop="1">
@@ -1244,22 +1254,22 @@
         <v>18</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.25" customHeight="1">
@@ -1279,7 +1289,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.25" customHeight="1">
@@ -1299,7 +1309,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>20</v>
@@ -1325,7 +1335,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>21</v>
@@ -1345,7 +1355,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>22</v>
@@ -1362,13 +1372,13 @@
     </row>
     <row r="13" spans="1:8" ht="34.9" customHeight="1">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>23</v>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarkli\Documents\programme\python\schedule_maid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BB8EC8-2643-4614-B5C5-6E15FCB3BEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEAF800-8CAD-46A9-942F-6EF6E7EA0B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarkli\Documents\programme\python\schedule_maid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEAF800-8CAD-46A9-942F-6EF6E7EA0B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47260BA0-A10F-45D5-B181-1572D9A80EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarkli\Documents\programme\python\schedule_maid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47260BA0-A10F-45D5-B181-1572D9A80EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A69E9C8-66C0-41E2-A8EA-DFFCCC9430E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英语单词整理/复习</t>
-  </si>
-  <si>
     <t>07.00-07.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,6 +550,10 @@
       </rPr>
       <t>自主复习数学/英语</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语单词整理/复习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -777,12 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1072,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1110,290 +1105,296 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="43.25" customHeight="1">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57.75" customHeight="1" thickBot="1">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57.75" customHeight="1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" ht="43.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="43.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="E7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="43.25" customHeight="1" thickBot="1">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="9" spans="1:8" ht="43.25" customHeight="1" thickTop="1">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.25" customHeight="1" thickTop="1">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="43.25" customHeight="1" thickBot="1">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="53.25" customHeight="1" thickTop="1">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="43.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="43.25" customHeight="1">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.25" customHeight="1">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.25" customHeight="1">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34.9" customHeight="1">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
